--- a/company_data_edited.xlsx
+++ b/company_data_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Archie\Desktop\potentia-capital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7D6788-5EAE-40F0-A003-6AD0C1F69A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8447B8-D29C-4C78-B47B-2C5EACED871E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company_data_edited" sheetId="1" r:id="rId1"/>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
